--- a/manual/dbDesign/支付系統.xlsx
+++ b/manual/dbDesign/支付系統.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilm/Dropbox/我的 Mac (Mac.local)/Documents/SideProject/Java/SpecialTopic/manual/dbDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A27825-F9D4-FA4E-B0DF-7E043A0A8FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232370D-F868-3048-AB24-B15514FBC074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1860" windowWidth="28380" windowHeight="17320" xr2:uid="{FF7E11E5-4496-1546-BC9B-1014340265BF}"/>
+    <workbookView xWindow="5000" yWindow="1860" windowWidth="28380" windowHeight="17320" activeTab="3" xr2:uid="{FF7E11E5-4496-1546-BC9B-1014340265BF}"/>
   </bookViews>
   <sheets>
     <sheet name="交易紀錄" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>交id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老師id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -77,6 +73,10 @@
   </si>
   <si>
     <t>完成(Boolean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＰＫ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,12 +131,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A500C5-8430-6B4E-9324-28425243E526}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -465,20 +468,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -490,20 +503,23 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <cols>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -527,10 +543,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -546,18 +562,18 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/manual/dbDesign/支付系統.xlsx
+++ b/manual/dbDesign/支付系統.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilm/Dropbox/我的 Mac (Mac.local)/Documents/SideProject/Java/SpecialTopic/manual/dbDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232370D-F868-3048-AB24-B15514FBC074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB2F391-AA56-9046-82C5-6C2151F83059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1860" windowWidth="28380" windowHeight="17320" activeTab="3" xr2:uid="{FF7E11E5-4496-1546-BC9B-1014340265BF}"/>
+    <workbookView xWindow="1520" yWindow="1480" windowWidth="28380" windowHeight="17320" xr2:uid="{FF7E11E5-4496-1546-BC9B-1014340265BF}"/>
   </bookViews>
   <sheets>
     <sheet name="交易紀錄" sheetId="1" r:id="rId1"/>
     <sheet name="支付紀錄" sheetId="2" r:id="rId2"/>
     <sheet name="「課程表」" sheetId="3" r:id="rId3"/>
-    <sheet name="「老師表」" sheetId="4" r:id="rId4"/>
+    <sheet name="「會員表」" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>交id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,23 +60,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>交易id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>課程id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成(Boolean)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ＰＫ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行帳號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易id(INT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生id(INT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程id(INT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -105,6 +129,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,41 +491,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A500C5-8430-6B4E-9324-28425243E526}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -500,26 +543,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDACB8A-20AB-0544-B5D9-1D6BC80540EF}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -533,20 +585,23 @@
   <sheetPr codeName="工作表3">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -560,20 +615,26 @@
   <sheetPr codeName="工作表4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
